--- a/data/data_train.xlsx
+++ b/data/data_train.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\מסמכים\ASE_audio\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marinamu\Documents\ASE_audio\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11A08FE-DAA7-40CA-A065-8FB68E6EC8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="193">
   <si>
     <t>Gender</t>
   </si>
@@ -179,12 +178,6 @@
   </si>
   <si>
     <t>RRB_Rel</t>
-  </si>
-  <si>
-    <t>IM_Echo</t>
-  </si>
-  <si>
-    <t>DL_Echo</t>
   </si>
   <si>
     <t>E2</t>
@@ -610,8 +603,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -972,34 +965,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N137"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="J1" sqref="J1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="4.109375" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" customWidth="1"/>
-    <col min="5" max="5" width="3.109375" customWidth="1"/>
-    <col min="6" max="6" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="3.140625" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
     <col min="7" max="7" width="4" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" customWidth="1"/>
-    <col min="11" max="11" width="8.21875" customWidth="1"/>
-    <col min="12" max="12" width="3.109375" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" customWidth="1"/>
-    <col min="14" max="14" width="3.21875" customWidth="1"/>
+    <col min="10" max="10" width="3.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1034,16 +1025,10 @@
       <c r="L1" t="s">
         <v>55</v>
       </c>
-      <c r="M1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N1" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1070,24 +1055,18 @@
         <v>8</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>3</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1117,21 +1096,15 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1161,21 +1134,15 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1208,18 +1175,12 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1246,24 +1207,18 @@
         <v>6</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -1293,21 +1248,15 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>3</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -1334,7 +1283,7 @@
         <v>7</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1342,16 +1291,10 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1381,21 +1324,15 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9">
-        <v>3</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1422,7 +1359,7 @@
         <v>10</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1430,16 +1367,10 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10">
-        <v>2</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1466,24 +1397,18 @@
         <v>8</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>2</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -1510,24 +1435,18 @@
         <v>6</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>2</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -1554,7 +1473,7 @@
         <v>9</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1562,16 +1481,10 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13">
-        <v>2</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -1601,21 +1514,15 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14">
-        <v>2</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -1642,24 +1549,18 @@
         <v>10</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>3</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -1689,21 +1590,15 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>3</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -1729,19 +1624,13 @@
       <c r="I17">
         <v>8</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -1768,7 +1657,7 @@
         <v>10</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1776,16 +1665,10 @@
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18">
-        <v>2</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -1812,24 +1695,18 @@
         <v>9</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>2</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>2</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -1856,24 +1733,18 @@
         <v>6</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>3</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1899,19 +1770,13 @@
       <c r="I21">
         <v>7</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -1938,7 +1803,7 @@
         <v>7</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1946,16 +1811,10 @@
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
@@ -1985,21 +1844,15 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23">
-        <v>3</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
@@ -2029,21 +1882,15 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24">
-        <v>3</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -2073,21 +1920,15 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25">
-        <v>3</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
@@ -2117,21 +1958,15 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="M26">
-        <v>2</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -2158,24 +1993,18 @@
         <v>10</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>3</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
@@ -2205,21 +2034,15 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28">
-        <v>3</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
@@ -2249,21 +2072,15 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="M29">
-        <v>2</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
         <v>13</v>
@@ -2290,24 +2107,18 @@
         <v>8</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
-      <c r="M30">
-        <v>3</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
@@ -2337,21 +2148,15 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>3</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
@@ -2378,24 +2183,18 @@
         <v>8</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>3</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
@@ -2422,24 +2221,18 @@
         <v>7</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
-      <c r="M33">
-        <v>2</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
@@ -2466,24 +2259,18 @@
         <v>8</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-      <c r="N34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
@@ -2513,21 +2300,15 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="M35">
-        <v>3</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
@@ -2554,24 +2335,18 @@
         <v>8</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
         <v>17</v>
@@ -2604,18 +2379,12 @@
         <v>1</v>
       </c>
       <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B38" t="s">
         <v>18</v>
@@ -2642,24 +2411,18 @@
         <v>9</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K38">
         <v>1</v>
       </c>
       <c r="L38">
-        <v>3</v>
-      </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B39" t="s">
         <v>19</v>
@@ -2685,22 +2448,16 @@
       <c r="I39">
         <v>6</v>
       </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
       <c r="K39">
         <v>0</v>
       </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
         <v>19</v>
@@ -2727,24 +2484,18 @@
         <v>9</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B41" t="s">
         <v>19</v>
@@ -2774,21 +2525,15 @@
         <v>1</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B42" t="s">
         <v>20</v>
@@ -2815,24 +2560,18 @@
         <v>8</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-      <c r="N42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B43" t="s">
         <v>21</v>
@@ -2859,24 +2598,18 @@
         <v>10</v>
       </c>
       <c r="J43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
@@ -2903,24 +2636,18 @@
         <v>8</v>
       </c>
       <c r="J44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K44">
         <v>1</v>
       </c>
       <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B45" t="s">
         <v>23</v>
@@ -2947,24 +2674,18 @@
         <v>5</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B46" t="s">
         <v>23</v>
@@ -2991,24 +2712,18 @@
         <v>7</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46">
-        <v>2</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B47" t="s">
         <v>23</v>
@@ -3038,21 +2753,15 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B48" t="s">
         <v>23</v>
@@ -3079,24 +2788,18 @@
         <v>9</v>
       </c>
       <c r="J48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K48">
         <v>1</v>
       </c>
       <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B49" t="s">
         <v>23</v>
@@ -3129,18 +2832,12 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B50" t="s">
         <v>23</v>
@@ -3167,24 +2864,18 @@
         <v>9</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>2</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B51" t="s">
         <v>23</v>
@@ -3217,18 +2908,12 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B52" t="s">
         <v>23</v>
@@ -3258,21 +2943,15 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="N52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B53" t="s">
         <v>23</v>
@@ -3302,21 +2981,15 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L53">
         <v>0</v>
       </c>
-      <c r="M53">
-        <v>2</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B54" t="s">
         <v>23</v>
@@ -3343,24 +3016,18 @@
         <v>10</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
-        <v>2</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B55" t="s">
         <v>23</v>
@@ -3387,24 +3054,18 @@
         <v>7</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
       <c r="L55">
-        <v>2</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B56" t="s">
         <v>23</v>
@@ -3437,18 +3098,12 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B57" t="s">
         <v>23</v>
@@ -3481,18 +3136,12 @@
         <v>0</v>
       </c>
       <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B58" t="s">
         <v>24</v>
@@ -3519,24 +3168,18 @@
         <v>10</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58">
-        <v>1</v>
-      </c>
-      <c r="M58">
-        <v>1</v>
-      </c>
-      <c r="N58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B59" t="s">
         <v>25</v>
@@ -3571,16 +3214,10 @@
       <c r="L59">
         <v>0</v>
       </c>
-      <c r="M59">
-        <v>2</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B60" t="s">
         <v>25</v>
@@ -3607,24 +3244,18 @@
         <v>7</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K60">
         <v>2</v>
       </c>
       <c r="L60">
-        <v>3</v>
-      </c>
-      <c r="M60">
-        <v>2</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B61" t="s">
         <v>25</v>
@@ -3654,21 +3285,15 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L61">
         <v>0</v>
       </c>
-      <c r="M61">
-        <v>3</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B62" t="s">
         <v>25</v>
@@ -3698,21 +3323,15 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L62">
         <v>0</v>
       </c>
-      <c r="M62">
-        <v>2</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B63" t="s">
         <v>25</v>
@@ -3739,24 +3358,18 @@
         <v>9</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K63">
         <v>2</v>
       </c>
       <c r="L63">
-        <v>2</v>
-      </c>
-      <c r="M63">
-        <v>2</v>
-      </c>
-      <c r="N63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B64" t="s">
         <v>25</v>
@@ -3783,7 +3396,7 @@
         <v>9</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -3791,16 +3404,10 @@
       <c r="L64">
         <v>0</v>
       </c>
-      <c r="M64">
-        <v>2</v>
-      </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B65" t="s">
         <v>25</v>
@@ -3827,24 +3434,18 @@
         <v>8</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>3</v>
-      </c>
-      <c r="N65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B66" t="s">
         <v>25</v>
@@ -3874,21 +3475,15 @@
         <v>1</v>
       </c>
       <c r="K66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L66">
         <v>1</v>
       </c>
-      <c r="M66">
-        <v>3</v>
-      </c>
-      <c r="N66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B67" t="s">
         <v>25</v>
@@ -3915,24 +3510,18 @@
         <v>10</v>
       </c>
       <c r="J67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L67">
         <v>1</v>
       </c>
-      <c r="M67">
-        <v>1</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B68" t="s">
         <v>25</v>
@@ -3959,24 +3548,18 @@
         <v>7</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68">
-        <v>2</v>
-      </c>
-      <c r="M68">
-        <v>1</v>
-      </c>
-      <c r="N68">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B69" t="s">
         <v>25</v>
@@ -4003,24 +3586,18 @@
         <v>6</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L69">
         <v>0</v>
       </c>
-      <c r="M69">
-        <v>2</v>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B70" t="s">
         <v>25</v>
@@ -4047,24 +3624,18 @@
         <v>8</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L70">
         <v>0</v>
       </c>
-      <c r="M70">
-        <v>3</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B71" t="s">
         <v>25</v>
@@ -4094,21 +3665,15 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L71">
         <v>0</v>
       </c>
-      <c r="M71">
-        <v>3</v>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B72" t="s">
         <v>25</v>
@@ -4141,18 +3706,12 @@
         <v>2</v>
       </c>
       <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="M72">
-        <v>2</v>
-      </c>
-      <c r="N72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B73" t="s">
         <v>25</v>
@@ -4179,24 +3738,18 @@
         <v>8</v>
       </c>
       <c r="J73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L73">
         <v>0</v>
       </c>
-      <c r="M73">
-        <v>2</v>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B74" t="s">
         <v>25</v>
@@ -4223,24 +3776,18 @@
         <v>7</v>
       </c>
       <c r="J74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
-      <c r="M74">
-        <v>2</v>
-      </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B75" t="s">
         <v>25</v>
@@ -4270,21 +3817,15 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>3</v>
-      </c>
-      <c r="N75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B76" t="s">
         <v>25</v>
@@ -4311,24 +3852,18 @@
         <v>8</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L76">
         <v>0</v>
       </c>
-      <c r="M76">
-        <v>2</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B77" t="s">
         <v>25</v>
@@ -4358,21 +3893,15 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L77">
         <v>0</v>
       </c>
-      <c r="M77">
-        <v>3</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B78" t="s">
         <v>25</v>
@@ -4399,24 +3928,18 @@
         <v>7</v>
       </c>
       <c r="J78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K78">
         <v>1</v>
       </c>
       <c r="L78">
-        <v>0</v>
-      </c>
-      <c r="M78">
-        <v>1</v>
-      </c>
-      <c r="N78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B79" t="s">
         <v>25</v>
@@ -4443,24 +3966,18 @@
         <v>9</v>
       </c>
       <c r="J79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="M79">
-        <v>2</v>
-      </c>
-      <c r="N79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B80" t="s">
         <v>25</v>
@@ -4487,24 +4004,18 @@
         <v>9</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L80">
         <v>1</v>
       </c>
-      <c r="M80">
-        <v>3</v>
-      </c>
-      <c r="N80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B81" t="s">
         <v>25</v>
@@ -4531,7 +4042,7 @@
         <v>9</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81">
         <v>2</v>
@@ -4539,16 +4050,10 @@
       <c r="L81">
         <v>0</v>
       </c>
-      <c r="M81">
-        <v>2</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B82" t="s">
         <v>25</v>
@@ -4578,21 +4083,15 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L82">
         <v>0</v>
       </c>
-      <c r="M82">
-        <v>2</v>
-      </c>
-      <c r="N82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B83" t="s">
         <v>25</v>
@@ -4622,21 +4121,15 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <v>2</v>
-      </c>
-      <c r="N83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B84" t="s">
         <v>26</v>
@@ -4666,21 +4159,15 @@
         <v>0</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L84">
         <v>0</v>
       </c>
-      <c r="M84">
-        <v>3</v>
-      </c>
-      <c r="N84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B85" t="s">
         <v>26</v>
@@ -4707,24 +4194,18 @@
         <v>8</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="M85">
-        <v>3</v>
-      </c>
-      <c r="N85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B86" t="s">
         <v>27</v>
@@ -4754,21 +4235,15 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86">
-        <v>3</v>
-      </c>
-      <c r="N86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B87" t="s">
         <v>28</v>
@@ -4795,24 +4270,18 @@
         <v>8</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87">
         <v>3</v>
       </c>
-      <c r="M87">
-        <v>1</v>
-      </c>
-      <c r="N87">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B88" t="s">
         <v>28</v>
@@ -4839,24 +4308,18 @@
         <v>8</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88">
         <v>2</v>
       </c>
       <c r="L88">
-        <v>0</v>
-      </c>
-      <c r="M88">
-        <v>2</v>
-      </c>
-      <c r="N88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B89" t="s">
         <v>29</v>
@@ -4886,21 +4349,15 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L89">
         <v>0</v>
       </c>
-      <c r="M89">
-        <v>3</v>
-      </c>
-      <c r="N89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B90" t="s">
         <v>29</v>
@@ -4930,21 +4387,15 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L90">
         <v>0</v>
       </c>
-      <c r="M90">
-        <v>2</v>
-      </c>
-      <c r="N90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B91" t="s">
         <v>29</v>
@@ -4971,24 +4422,18 @@
         <v>8</v>
       </c>
       <c r="J91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L91">
         <v>0</v>
       </c>
-      <c r="M91">
-        <v>2</v>
-      </c>
-      <c r="N91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B92" t="s">
         <v>29</v>
@@ -5021,18 +4466,12 @@
         <v>0</v>
       </c>
       <c r="L92">
-        <v>0</v>
-      </c>
-      <c r="M92">
-        <v>0</v>
-      </c>
-      <c r="N92">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B93" t="s">
         <v>30</v>
@@ -5059,24 +4498,18 @@
         <v>7</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93">
-        <v>3</v>
-      </c>
-      <c r="M93">
-        <v>1</v>
-      </c>
-      <c r="N93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B94" t="s">
         <v>31</v>
@@ -5103,24 +4536,18 @@
         <v>8</v>
       </c>
       <c r="J94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94">
-        <v>0</v>
-      </c>
-      <c r="M94">
-        <v>1</v>
-      </c>
-      <c r="N94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B95" t="s">
         <v>31</v>
@@ -5147,24 +4574,18 @@
         <v>9</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95">
-        <v>2</v>
-      </c>
-      <c r="M95">
-        <v>1</v>
-      </c>
-      <c r="N95">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B96" t="s">
         <v>32</v>
@@ -5194,21 +4615,15 @@
         <v>0</v>
       </c>
       <c r="K96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L96">
         <v>0</v>
       </c>
-      <c r="M96">
-        <v>3</v>
-      </c>
-      <c r="N96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B97" t="s">
         <v>33</v>
@@ -5235,24 +4650,18 @@
         <v>8</v>
       </c>
       <c r="J97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L97">
-        <v>0</v>
-      </c>
-      <c r="M97">
-        <v>1</v>
-      </c>
-      <c r="N97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B98" t="s">
         <v>33</v>
@@ -5279,24 +4688,18 @@
         <v>8</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98">
-        <v>2</v>
-      </c>
-      <c r="M98">
-        <v>1</v>
-      </c>
-      <c r="N98">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B99" t="s">
         <v>33</v>
@@ -5322,22 +4725,16 @@
       <c r="I99">
         <v>7</v>
       </c>
-      <c r="J99">
-        <v>1</v>
-      </c>
       <c r="K99">
-        <v>0</v>
-      </c>
-      <c r="M99">
-        <v>1</v>
-      </c>
-      <c r="N99">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B100" t="s">
         <v>33</v>
@@ -5364,24 +4761,18 @@
         <v>7</v>
       </c>
       <c r="J100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K100">
         <v>1</v>
       </c>
       <c r="L100">
-        <v>2</v>
-      </c>
-      <c r="M100">
-        <v>1</v>
-      </c>
-      <c r="N100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B101" t="s">
         <v>34</v>
@@ -5411,21 +4802,15 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L101">
         <v>0</v>
       </c>
-      <c r="M101">
-        <v>3</v>
-      </c>
-      <c r="N101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B102" t="s">
         <v>35</v>
@@ -5452,24 +4837,18 @@
         <v>7</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L102">
-        <v>2</v>
-      </c>
-      <c r="M102">
-        <v>3</v>
-      </c>
-      <c r="N102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B103" t="s">
         <v>35</v>
@@ -5496,24 +4875,18 @@
         <v>8</v>
       </c>
       <c r="J103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L103">
-        <v>0</v>
-      </c>
-      <c r="M103">
-        <v>1</v>
-      </c>
-      <c r="N103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B104" t="s">
         <v>36</v>
@@ -5540,24 +4913,18 @@
         <v>8</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L104">
-        <v>1</v>
-      </c>
-      <c r="M104">
-        <v>1</v>
-      </c>
-      <c r="N104">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B105" t="s">
         <v>37</v>
@@ -5587,21 +4954,15 @@
         <v>1</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L105">
-        <v>1</v>
-      </c>
-      <c r="M105">
-        <v>2</v>
-      </c>
-      <c r="N105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B106" t="s">
         <v>37</v>
@@ -5628,24 +4989,18 @@
         <v>6</v>
       </c>
       <c r="J106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L106">
         <v>0</v>
       </c>
-      <c r="M106">
-        <v>2</v>
-      </c>
-      <c r="N106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B107" t="s">
         <v>37</v>
@@ -5675,21 +5030,15 @@
         <v>1</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L107">
-        <v>1</v>
-      </c>
-      <c r="M107">
-        <v>2</v>
-      </c>
-      <c r="N107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B108" t="s">
         <v>37</v>
@@ -5716,24 +5065,18 @@
         <v>9</v>
       </c>
       <c r="J108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L108">
         <v>2</v>
       </c>
-      <c r="M108">
-        <v>1</v>
-      </c>
-      <c r="N108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B109" t="s">
         <v>37</v>
@@ -5763,21 +5106,15 @@
         <v>0</v>
       </c>
       <c r="K109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L109">
-        <v>0</v>
-      </c>
-      <c r="M109">
-        <v>1</v>
-      </c>
-      <c r="N109">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B110" t="s">
         <v>37</v>
@@ -5804,24 +5141,18 @@
         <v>7</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L110">
-        <v>1</v>
-      </c>
-      <c r="M110">
-        <v>1</v>
-      </c>
-      <c r="N110">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B111" t="s">
         <v>38</v>
@@ -5854,18 +5185,12 @@
         <v>2</v>
       </c>
       <c r="L111">
-        <v>1</v>
-      </c>
-      <c r="M111">
-        <v>2</v>
-      </c>
-      <c r="N111">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B112" t="s">
         <v>39</v>
@@ -5892,24 +5217,18 @@
         <v>9</v>
       </c>
       <c r="J112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L112">
-        <v>0</v>
-      </c>
-      <c r="M112">
-        <v>1</v>
-      </c>
-      <c r="N112">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B113" t="s">
         <v>39</v>
@@ -5936,24 +5255,18 @@
         <v>9</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113">
         <v>1</v>
       </c>
       <c r="L113">
-        <v>1</v>
-      </c>
-      <c r="M113">
-        <v>1</v>
-      </c>
-      <c r="N113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B114" t="s">
         <v>39</v>
@@ -5980,7 +5293,7 @@
         <v>8</v>
       </c>
       <c r="J114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K114">
         <v>2</v>
@@ -5988,16 +5301,10 @@
       <c r="L114">
         <v>0</v>
       </c>
-      <c r="M114">
-        <v>2</v>
-      </c>
-      <c r="N114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B115" t="s">
         <v>39</v>
@@ -6024,24 +5331,18 @@
         <v>5</v>
       </c>
       <c r="J115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L115">
-        <v>0</v>
-      </c>
-      <c r="M115">
-        <v>1</v>
-      </c>
-      <c r="N115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B116" t="s">
         <v>39</v>
@@ -6071,21 +5372,15 @@
         <v>0</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L116">
-        <v>0</v>
-      </c>
-      <c r="M116">
-        <v>1</v>
-      </c>
-      <c r="N116">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B117" t="s">
         <v>39</v>
@@ -6115,21 +5410,15 @@
         <v>0</v>
       </c>
       <c r="K117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L117">
-        <v>0</v>
-      </c>
-      <c r="M117">
-        <v>1</v>
-      </c>
-      <c r="N117">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B118" t="s">
         <v>39</v>
@@ -6156,24 +5445,18 @@
         <v>6</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L118">
-        <v>2</v>
-      </c>
-      <c r="M118">
-        <v>2</v>
-      </c>
-      <c r="N118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B119" t="s">
         <v>39</v>
@@ -6200,24 +5483,18 @@
         <v>10</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L119">
         <v>3</v>
       </c>
-      <c r="M119">
-        <v>1</v>
-      </c>
-      <c r="N119">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B120" t="s">
         <v>39</v>
@@ -6247,21 +5524,15 @@
         <v>0</v>
       </c>
       <c r="K120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L120">
-        <v>0</v>
-      </c>
-      <c r="M120">
-        <v>1</v>
-      </c>
-      <c r="N120">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B121" t="s">
         <v>39</v>
@@ -6288,7 +5559,7 @@
         <v>5</v>
       </c>
       <c r="J121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K121">
         <v>0</v>
@@ -6296,16 +5567,10 @@
       <c r="L121">
         <v>2</v>
       </c>
-      <c r="M121">
-        <v>0</v>
-      </c>
-      <c r="N121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B122" t="s">
         <v>39</v>
@@ -6332,24 +5597,18 @@
         <v>9</v>
       </c>
       <c r="J122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L122">
         <v>0</v>
       </c>
-      <c r="M122">
-        <v>2</v>
-      </c>
-      <c r="N122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B123" t="s">
         <v>40</v>
@@ -6376,24 +5635,18 @@
         <v>6</v>
       </c>
       <c r="J123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K123">
         <v>0</v>
       </c>
       <c r="L123">
-        <v>0</v>
-      </c>
-      <c r="M123">
-        <v>0</v>
-      </c>
-      <c r="N123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B124" t="s">
         <v>41</v>
@@ -6420,24 +5673,18 @@
         <v>8</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L124">
-        <v>1</v>
-      </c>
-      <c r="M124">
-        <v>1</v>
-      </c>
-      <c r="N124">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B125" t="s">
         <v>41</v>
@@ -6464,24 +5711,18 @@
         <v>10</v>
       </c>
       <c r="J125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K125">
         <v>2</v>
       </c>
       <c r="L125">
-        <v>0</v>
-      </c>
-      <c r="M125">
-        <v>2</v>
-      </c>
-      <c r="N125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B126" t="s">
         <v>41</v>
@@ -6508,24 +5749,18 @@
         <v>5</v>
       </c>
       <c r="J126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L126">
-        <v>1</v>
-      </c>
-      <c r="M126">
-        <v>1</v>
-      </c>
-      <c r="N126">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B127" t="s">
         <v>41</v>
@@ -6552,24 +5787,18 @@
         <v>8</v>
       </c>
       <c r="J127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L127">
         <v>1</v>
       </c>
-      <c r="M127">
-        <v>1</v>
-      </c>
-      <c r="N127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B128" t="s">
         <v>41</v>
@@ -6596,24 +5825,18 @@
         <v>6</v>
       </c>
       <c r="J128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K128">
         <v>1</v>
       </c>
       <c r="L128">
-        <v>0</v>
-      </c>
-      <c r="M128">
-        <v>1</v>
-      </c>
-      <c r="N128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B129" t="s">
         <v>42</v>
@@ -6640,24 +5863,18 @@
         <v>7</v>
       </c>
       <c r="J129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K129">
         <v>1</v>
       </c>
       <c r="L129">
-        <v>2</v>
-      </c>
-      <c r="M129">
-        <v>1</v>
-      </c>
-      <c r="N129">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B130" t="s">
         <v>43</v>
@@ -6684,24 +5901,18 @@
         <v>8</v>
       </c>
       <c r="J130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L130">
-        <v>2</v>
-      </c>
-      <c r="M130">
-        <v>1</v>
-      </c>
-      <c r="N130">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B131" t="s">
         <v>43</v>
@@ -6728,24 +5939,18 @@
         <v>10</v>
       </c>
       <c r="J131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L131">
-        <v>3</v>
-      </c>
-      <c r="M131">
-        <v>1</v>
-      </c>
-      <c r="N131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B132" t="s">
         <v>43</v>
@@ -6772,24 +5977,18 @@
         <v>8</v>
       </c>
       <c r="J132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L132">
-        <v>1</v>
-      </c>
-      <c r="M132">
-        <v>2</v>
-      </c>
-      <c r="N132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B133" t="s">
         <v>44</v>
@@ -6816,24 +6015,18 @@
         <v>10</v>
       </c>
       <c r="J133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L133">
-        <v>0</v>
-      </c>
-      <c r="M133">
-        <v>0</v>
-      </c>
-      <c r="N133">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B134" t="s">
         <v>44</v>
@@ -6860,24 +6053,18 @@
         <v>6</v>
       </c>
       <c r="J134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K134">
         <v>0</v>
       </c>
       <c r="L134">
-        <v>0</v>
-      </c>
-      <c r="M134">
-        <v>0</v>
-      </c>
-      <c r="N134">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B135" t="s">
         <v>44</v>
@@ -6910,18 +6097,12 @@
         <v>0</v>
       </c>
       <c r="L135">
-        <v>0</v>
-      </c>
-      <c r="M135">
-        <v>0</v>
-      </c>
-      <c r="N135">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B136" t="s">
         <v>44</v>
@@ -6948,24 +6129,18 @@
         <v>5</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K136">
         <v>0</v>
       </c>
       <c r="L136">
-        <v>1</v>
-      </c>
-      <c r="M136">
-        <v>0</v>
-      </c>
-      <c r="N136">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B137" t="s">
         <v>45</v>
@@ -6995,15 +6170,9 @@
         <v>0</v>
       </c>
       <c r="K137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L137">
-        <v>0</v>
-      </c>
-      <c r="M137">
-        <v>3</v>
-      </c>
-      <c r="N137">
         <v>0</v>
       </c>
     </row>
